--- a/GroceryApplicationProject/src/main/java/resources/TestData.xlsx
+++ b/GroceryApplicationProject/src/main/java/resources/TestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserCreation" sheetId="2" r:id="rId2"/>
     <sheet name="ManageCategory&amp;Subcategory" sheetId="3" r:id="rId3"/>
+    <sheet name="ManageMenu" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>UserName</t>
   </si>
@@ -68,19 +69,67 @@
   </si>
   <si>
     <t>Summer Gifts</t>
+  </si>
+  <si>
+    <t>MenuName</t>
+  </si>
+  <si>
+    <t>ParentMenu</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>favIcon</t>
+  </si>
+  <si>
+    <t>tableValue</t>
+  </si>
+  <si>
+    <t>fileValue</t>
+  </si>
+  <si>
+    <t>colourValue</t>
+  </si>
+  <si>
+    <t>Manage Content</t>
+  </si>
+  <si>
+    <t>testurljsk</t>
+  </si>
+  <si>
+    <t>favjsk</t>
+  </si>
+  <si>
+    <t>tabjsk</t>
+  </si>
+  <si>
+    <t>filejsk</t>
+  </si>
+  <si>
+    <t>coloutjsk</t>
+  </si>
+  <si>
+    <t>MenuJSK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF211A1D"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,8 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -555,4 +605,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="7" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GroceryApplicationProject/src/main/java/resources/TestData.xlsx
+++ b/GroceryApplicationProject/src/main/java/resources/TestData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>UserName</t>
   </si>
@@ -111,13 +111,16 @@
   </si>
   <si>
     <t>MenuJSK</t>
+  </si>
+  <si>
+    <t>menuOrder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +132,13 @@
       <sz val="9"/>
       <color rgb="FF211A1D"/>
       <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0066CC"/>
+      <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -152,9 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,10 +620,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -621,7 +632,7 @@
     <col min="2" max="7" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -643,8 +654,11 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -665,6 +679,9 @@
       </c>
       <c r="G2" t="s">
         <v>24</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
